--- a/Protocol/src/ExcelToAppComponent/Eolian_fenix/components.xlsx
+++ b/Protocol/src/ExcelToAppComponent/Eolian_fenix/components.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ma\Documents\Github\Telemetria_Auriga\Protocol\src\ExcelToAppComponent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ma\Documents\Github\Telemetria_Auriga\Protocol\src\ExcelToAppComponent\Eolian_fenix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9206F41C-5F66-4993-9732-7C88FE76D316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B03997-BCAE-4B66-9BB5-0A52E400E1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="16080" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,8 +98,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -127,8 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,10 +514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9F52BB-0BF4-4D49-892C-AB6869941B1B}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +568,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-0.1</v>
+        <v>-1</v>
       </c>
       <c r="B2">
         <v>-0.1</v>
@@ -645,7 +654,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Protocol/src/ExcelToAppComponent/Eolian_fenix/components.xlsx
+++ b/Protocol/src/ExcelToAppComponent/Eolian_fenix/components.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ma\Documents\Github\Telemetria_Auriga\Protocol\src\ExcelToAppComponent\Eolian_fenix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B03997-BCAE-4B66-9BB5-0A52E400E1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559070E9-0B52-4E8F-9A66-4A682EA1A5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="16080" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="16080" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MAIN" sheetId="1" r:id="rId1"/>
-    <sheet name="KELLY_D" sheetId="2" r:id="rId2"/>
+    <sheet name="mainData" sheetId="1" r:id="rId1"/>
+    <sheet name="kelly_der" sheetId="2" r:id="rId2"/>
+    <sheet name="kelly_izq" sheetId="3" r:id="rId3"/>
+    <sheet name="bms" sheetId="4" r:id="rId4"/>
+    <sheet name="bms_temp" sheetId="5" r:id="rId5"/>
+    <sheet name="bms_volt" sheetId="6" r:id="rId6"/>
+    <sheet name="mppt1" sheetId="7" r:id="rId7"/>
+    <sheet name="mppt2" sheetId="8" r:id="rId8"/>
+    <sheet name="mppt3" sheetId="9" r:id="rId9"/>
+    <sheet name="mppt4" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="130">
   <si>
     <t>Velocidad</t>
   </si>
@@ -92,13 +100,337 @@
   </si>
   <si>
     <t>REVERSE</t>
+  </si>
+  <si>
+    <t>CURRENT</t>
+  </si>
+  <si>
+    <t>INST_VOLT</t>
+  </si>
+  <si>
+    <t>OPEN_VOLT</t>
+  </si>
+  <si>
+    <t>ABS_CURRENT</t>
+  </si>
+  <si>
+    <t>MAX_TEMP_ID</t>
+  </si>
+  <si>
+    <t>MIN_TEMP_ID</t>
+  </si>
+  <si>
+    <t>AVG_TEMP</t>
+  </si>
+  <si>
+    <t>INTERNAL_TEMP</t>
+  </si>
+  <si>
+    <t>MAX_VOLT_ID</t>
+  </si>
+  <si>
+    <t>MIN_VOLT_ID</t>
+  </si>
+  <si>
+    <t>TEMP_1</t>
+  </si>
+  <si>
+    <t>TEMP_2</t>
+  </si>
+  <si>
+    <t>TEMP_3</t>
+  </si>
+  <si>
+    <t>TEMP_4</t>
+  </si>
+  <si>
+    <t>TEMP_5</t>
+  </si>
+  <si>
+    <t>TEMP_6</t>
+  </si>
+  <si>
+    <t>TEMP_7</t>
+  </si>
+  <si>
+    <t>TEMP_8</t>
+  </si>
+  <si>
+    <t>TEMP_9</t>
+  </si>
+  <si>
+    <t>TEMP_10</t>
+  </si>
+  <si>
+    <t>TEMP_11</t>
+  </si>
+  <si>
+    <t>TEMP_12</t>
+  </si>
+  <si>
+    <t>TEMP_13</t>
+  </si>
+  <si>
+    <t>TEMP_14</t>
+  </si>
+  <si>
+    <t>TEMP_15</t>
+  </si>
+  <si>
+    <t>TEMP_16</t>
+  </si>
+  <si>
+    <t>TEMP_17</t>
+  </si>
+  <si>
+    <t>TEMP_18</t>
+  </si>
+  <si>
+    <t>TEMP_19</t>
+  </si>
+  <si>
+    <t>TEMP_20</t>
+  </si>
+  <si>
+    <t>TEMP_21</t>
+  </si>
+  <si>
+    <t>TEMP_22</t>
+  </si>
+  <si>
+    <t>TEMP_23</t>
+  </si>
+  <si>
+    <t>TEMP_24</t>
+  </si>
+  <si>
+    <t>TEMP_25</t>
+  </si>
+  <si>
+    <t>TEMP_26</t>
+  </si>
+  <si>
+    <t>TEMP_27</t>
+  </si>
+  <si>
+    <t>TEMP_28</t>
+  </si>
+  <si>
+    <t>TEMP_29</t>
+  </si>
+  <si>
+    <t>TEMP_30</t>
+  </si>
+  <si>
+    <t>TEMP_31</t>
+  </si>
+  <si>
+    <t>TEMP_32</t>
+  </si>
+  <si>
+    <t>TEMP_33</t>
+  </si>
+  <si>
+    <t>TEMP_34</t>
+  </si>
+  <si>
+    <t>TEMP_35</t>
+  </si>
+  <si>
+    <t>TEMP_36</t>
+  </si>
+  <si>
+    <t>TEMP_37</t>
+  </si>
+  <si>
+    <t>TEMP_38</t>
+  </si>
+  <si>
+    <t>TEMP_39</t>
+  </si>
+  <si>
+    <t>TEMP_40</t>
+  </si>
+  <si>
+    <t>TEMP_41</t>
+  </si>
+  <si>
+    <t>TEMP_42</t>
+  </si>
+  <si>
+    <t>TEMP_43</t>
+  </si>
+  <si>
+    <t>TEMP_44</t>
+  </si>
+  <si>
+    <t>TEMP_45</t>
+  </si>
+  <si>
+    <t>TEMP_46</t>
+  </si>
+  <si>
+    <t>TEMP_47</t>
+  </si>
+  <si>
+    <t>TEMP_48</t>
+  </si>
+  <si>
+    <t>TEMP_49</t>
+  </si>
+  <si>
+    <t>TEMP_50</t>
+  </si>
+  <si>
+    <t>TEMP_51</t>
+  </si>
+  <si>
+    <t>TEMP_52</t>
+  </si>
+  <si>
+    <t>TEMP_53</t>
+  </si>
+  <si>
+    <t>TEMP_54</t>
+  </si>
+  <si>
+    <t>TEMP_55</t>
+  </si>
+  <si>
+    <t>TEMP_56</t>
+  </si>
+  <si>
+    <t>TEMP_57</t>
+  </si>
+  <si>
+    <t>TEMP_58</t>
+  </si>
+  <si>
+    <t>TEMP_59</t>
+  </si>
+  <si>
+    <t>TEMP_60</t>
+  </si>
+  <si>
+    <t>VOLT_1</t>
+  </si>
+  <si>
+    <t>VOLT_2</t>
+  </si>
+  <si>
+    <t>VOLT_3</t>
+  </si>
+  <si>
+    <t>VOLT_4</t>
+  </si>
+  <si>
+    <t>VOLT_5</t>
+  </si>
+  <si>
+    <t>VOLT_6</t>
+  </si>
+  <si>
+    <t>VOLT_7</t>
+  </si>
+  <si>
+    <t>VOLT_8</t>
+  </si>
+  <si>
+    <t>VOLT_9</t>
+  </si>
+  <si>
+    <t>VOLT_10</t>
+  </si>
+  <si>
+    <t>VOLT_11</t>
+  </si>
+  <si>
+    <t>VOLT_12</t>
+  </si>
+  <si>
+    <t>VOLT_13</t>
+  </si>
+  <si>
+    <t>VOLT_14</t>
+  </si>
+  <si>
+    <t>VOLT_15</t>
+  </si>
+  <si>
+    <t>VOLT_16</t>
+  </si>
+  <si>
+    <t>VOLT_17</t>
+  </si>
+  <si>
+    <t>VOLT_18</t>
+  </si>
+  <si>
+    <t>VOLT_19</t>
+  </si>
+  <si>
+    <t>VOLT_20</t>
+  </si>
+  <si>
+    <t>VOLT_21</t>
+  </si>
+  <si>
+    <t>VOLT_22</t>
+  </si>
+  <si>
+    <t>VOLT_23</t>
+  </si>
+  <si>
+    <t>VOLT_24</t>
+  </si>
+  <si>
+    <t>VOLT_25</t>
+  </si>
+  <si>
+    <t>VOLT_26</t>
+  </si>
+  <si>
+    <t>VOLT_27</t>
+  </si>
+  <si>
+    <t>VOLT_28</t>
+  </si>
+  <si>
+    <t>VOLT_29</t>
+  </si>
+  <si>
+    <t>VOLT_30</t>
+  </si>
+  <si>
+    <t>V_IN</t>
+  </si>
+  <si>
+    <t>I_IN</t>
+  </si>
+  <si>
+    <t>V_OUT</t>
+  </si>
+  <si>
+    <t>BLVR</t>
+  </si>
+  <si>
+    <t>OVT</t>
+  </si>
+  <si>
+    <t>NOC</t>
+  </si>
+  <si>
+    <t>UNDV</t>
+  </si>
+  <si>
+    <t>TEMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +442,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,9 +473,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,145 +851,238 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67BBD65-0C1C-49CF-A495-01A07240720A}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="B2">
+        <v>-0.1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="B3">
+        <v>49.9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9F52BB-0BF4-4D49-892C-AB6869941B1B}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>-1</v>
-      </c>
-      <c r="B2">
-        <v>-0.1</v>
-      </c>
-      <c r="C2">
-        <v>-0.1</v>
-      </c>
-      <c r="D2">
-        <v>-0.1</v>
-      </c>
-      <c r="E2">
-        <v>-0.1</v>
-      </c>
-      <c r="F2">
-        <v>-0.1</v>
-      </c>
-      <c r="G2">
-        <v>-0.1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>-9.9</v>
-      </c>
-      <c r="L2">
-        <v>-9.9</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
+      <c r="A2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>-9.9</v>
+      </c>
+      <c r="L2" s="2">
+        <v>-9.9</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>49.9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>49.9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>49.9</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>129.9</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>129.9</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>129.9</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>4999.8999999999996</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>255</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
         <v>119.9</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>119.9</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -661,4 +1093,1440 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BCDE4B-9290-418D-83B1-D71225EE7CDE}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>-9.9</v>
+      </c>
+      <c r="L2" s="2">
+        <v>-9.9</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="F3" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4999.8999999999996</v>
+      </c>
+      <c r="H3" s="2">
+        <v>255</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>119.9</v>
+      </c>
+      <c r="L3" s="2">
+        <v>119.9</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B547D1-632A-4F3B-9A3A-887796921B5F}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-49.9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="F2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="G2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="H2">
+        <v>-9.9</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>-9.9</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>-9.9</v>
+      </c>
+      <c r="M2">
+        <v>-9.9</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="F3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="G3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="H3">
+        <v>89.9</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>89.9</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>89.9</v>
+      </c>
+      <c r="M3">
+        <v>89.9</v>
+      </c>
+      <c r="N3">
+        <v>30</v>
+      </c>
+      <c r="O3">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39D22A6-69A3-4C78-81BF-9DE38D1DB719}">
+  <dimension ref="A1:BH3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-9.9</v>
+      </c>
+      <c r="B2">
+        <v>-9.9</v>
+      </c>
+      <c r="C2">
+        <v>-9.9</v>
+      </c>
+      <c r="D2">
+        <v>-9.9</v>
+      </c>
+      <c r="E2">
+        <v>-9.9</v>
+      </c>
+      <c r="F2">
+        <v>-9.9</v>
+      </c>
+      <c r="G2">
+        <v>-9.9</v>
+      </c>
+      <c r="H2">
+        <v>-9.9</v>
+      </c>
+      <c r="I2">
+        <v>-9.9</v>
+      </c>
+      <c r="J2">
+        <v>-9.9</v>
+      </c>
+      <c r="K2">
+        <v>-9.9</v>
+      </c>
+      <c r="L2">
+        <v>-9.9</v>
+      </c>
+      <c r="M2">
+        <v>-9.9</v>
+      </c>
+      <c r="N2">
+        <v>-9.9</v>
+      </c>
+      <c r="O2">
+        <v>-9.9</v>
+      </c>
+      <c r="P2">
+        <v>-9.9</v>
+      </c>
+      <c r="Q2">
+        <v>-9.9</v>
+      </c>
+      <c r="R2">
+        <v>-9.9</v>
+      </c>
+      <c r="S2">
+        <v>-9.9</v>
+      </c>
+      <c r="T2">
+        <v>-9.9</v>
+      </c>
+      <c r="U2">
+        <v>-9.9</v>
+      </c>
+      <c r="V2">
+        <v>-9.9</v>
+      </c>
+      <c r="W2">
+        <v>-9.9</v>
+      </c>
+      <c r="X2">
+        <v>-9.9</v>
+      </c>
+      <c r="Y2">
+        <v>-9.9</v>
+      </c>
+      <c r="Z2">
+        <v>-9.9</v>
+      </c>
+      <c r="AA2">
+        <v>-9.9</v>
+      </c>
+      <c r="AB2">
+        <v>-9.9</v>
+      </c>
+      <c r="AC2">
+        <v>-9.9</v>
+      </c>
+      <c r="AD2">
+        <v>-9.9</v>
+      </c>
+      <c r="AE2">
+        <v>-9.9</v>
+      </c>
+      <c r="AF2">
+        <v>-9.9</v>
+      </c>
+      <c r="AG2">
+        <v>-9.9</v>
+      </c>
+      <c r="AH2">
+        <v>-9.9</v>
+      </c>
+      <c r="AI2">
+        <v>-9.9</v>
+      </c>
+      <c r="AJ2">
+        <v>-9.9</v>
+      </c>
+      <c r="AK2">
+        <v>-9.9</v>
+      </c>
+      <c r="AL2">
+        <v>-9.9</v>
+      </c>
+      <c r="AM2">
+        <v>-9.9</v>
+      </c>
+      <c r="AN2">
+        <v>-9.9</v>
+      </c>
+      <c r="AO2">
+        <v>-9.9</v>
+      </c>
+      <c r="AP2">
+        <v>-9.9</v>
+      </c>
+      <c r="AQ2">
+        <v>-9.9</v>
+      </c>
+      <c r="AR2">
+        <v>-9.9</v>
+      </c>
+      <c r="AS2">
+        <v>-9.9</v>
+      </c>
+      <c r="AT2">
+        <v>-9.9</v>
+      </c>
+      <c r="AU2">
+        <v>-9.9</v>
+      </c>
+      <c r="AV2">
+        <v>-9.9</v>
+      </c>
+      <c r="AW2">
+        <v>-9.9</v>
+      </c>
+      <c r="AX2">
+        <v>-9.9</v>
+      </c>
+      <c r="AY2">
+        <v>-9.9</v>
+      </c>
+      <c r="AZ2">
+        <v>-9.9</v>
+      </c>
+      <c r="BA2">
+        <v>-9.9</v>
+      </c>
+      <c r="BB2">
+        <v>-9.9</v>
+      </c>
+      <c r="BC2">
+        <v>-9.9</v>
+      </c>
+      <c r="BD2">
+        <v>-9.9</v>
+      </c>
+      <c r="BE2">
+        <v>-9.9</v>
+      </c>
+      <c r="BF2">
+        <v>-9.9</v>
+      </c>
+      <c r="BG2">
+        <v>-9.9</v>
+      </c>
+      <c r="BH2">
+        <v>-9.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>89.9</v>
+      </c>
+      <c r="B3">
+        <v>89.9</v>
+      </c>
+      <c r="C3">
+        <v>89.9</v>
+      </c>
+      <c r="D3">
+        <v>89.9</v>
+      </c>
+      <c r="E3">
+        <v>89.9</v>
+      </c>
+      <c r="F3">
+        <v>89.9</v>
+      </c>
+      <c r="G3">
+        <v>89.9</v>
+      </c>
+      <c r="H3">
+        <v>89.9</v>
+      </c>
+      <c r="I3">
+        <v>89.9</v>
+      </c>
+      <c r="J3">
+        <v>89.9</v>
+      </c>
+      <c r="K3">
+        <v>89.9</v>
+      </c>
+      <c r="L3">
+        <v>89.9</v>
+      </c>
+      <c r="M3">
+        <v>89.9</v>
+      </c>
+      <c r="N3">
+        <v>89.9</v>
+      </c>
+      <c r="O3">
+        <v>89.9</v>
+      </c>
+      <c r="P3">
+        <v>89.9</v>
+      </c>
+      <c r="Q3">
+        <v>89.9</v>
+      </c>
+      <c r="R3">
+        <v>89.9</v>
+      </c>
+      <c r="S3">
+        <v>89.9</v>
+      </c>
+      <c r="T3">
+        <v>89.9</v>
+      </c>
+      <c r="U3">
+        <v>89.9</v>
+      </c>
+      <c r="V3">
+        <v>89.9</v>
+      </c>
+      <c r="W3">
+        <v>89.9</v>
+      </c>
+      <c r="X3">
+        <v>89.9</v>
+      </c>
+      <c r="Y3">
+        <v>89.9</v>
+      </c>
+      <c r="Z3">
+        <v>89.9</v>
+      </c>
+      <c r="AA3">
+        <v>89.9</v>
+      </c>
+      <c r="AB3">
+        <v>89.9</v>
+      </c>
+      <c r="AC3">
+        <v>89.9</v>
+      </c>
+      <c r="AD3">
+        <v>89.9</v>
+      </c>
+      <c r="AE3">
+        <v>89.9</v>
+      </c>
+      <c r="AF3">
+        <v>89.9</v>
+      </c>
+      <c r="AG3">
+        <v>89.9</v>
+      </c>
+      <c r="AH3">
+        <v>89.9</v>
+      </c>
+      <c r="AI3">
+        <v>89.9</v>
+      </c>
+      <c r="AJ3">
+        <v>89.9</v>
+      </c>
+      <c r="AK3">
+        <v>89.9</v>
+      </c>
+      <c r="AL3">
+        <v>89.9</v>
+      </c>
+      <c r="AM3">
+        <v>89.9</v>
+      </c>
+      <c r="AN3">
+        <v>89.9</v>
+      </c>
+      <c r="AO3">
+        <v>89.9</v>
+      </c>
+      <c r="AP3">
+        <v>89.9</v>
+      </c>
+      <c r="AQ3">
+        <v>89.9</v>
+      </c>
+      <c r="AR3">
+        <v>89.9</v>
+      </c>
+      <c r="AS3">
+        <v>89.9</v>
+      </c>
+      <c r="AT3">
+        <v>89.9</v>
+      </c>
+      <c r="AU3">
+        <v>89.9</v>
+      </c>
+      <c r="AV3">
+        <v>89.9</v>
+      </c>
+      <c r="AW3">
+        <v>89.9</v>
+      </c>
+      <c r="AX3">
+        <v>89.9</v>
+      </c>
+      <c r="AY3">
+        <v>89.9</v>
+      </c>
+      <c r="AZ3">
+        <v>89.9</v>
+      </c>
+      <c r="BA3">
+        <v>89.9</v>
+      </c>
+      <c r="BB3">
+        <v>89.9</v>
+      </c>
+      <c r="BC3">
+        <v>89.9</v>
+      </c>
+      <c r="BD3">
+        <v>89.9</v>
+      </c>
+      <c r="BE3">
+        <v>89.9</v>
+      </c>
+      <c r="BF3">
+        <v>89.9</v>
+      </c>
+      <c r="BG3">
+        <v>89.9</v>
+      </c>
+      <c r="BH3">
+        <v>89.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF960A0-F629-434E-B8CE-7DE56A6AF799}">
+  <dimension ref="A1:AD3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="B2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="C2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="D2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="E2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="F2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="G2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="H2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="I2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="J2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="K2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="L2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="M2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="N2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="O2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="P2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="R2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="S2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="T2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="U2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="V2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="W2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="X2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="Y2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="AA2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="AB2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="AC2">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="AD2">
+        <v>2.4990000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="B3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="C3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="D3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="E3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="F3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="G3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="H3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="I3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="J3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="K3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="L3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="M3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="N3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="O3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="P3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="Q3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="R3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="S3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="T3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="U3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="V3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="W3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="X3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="Y3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="Z3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="AA3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="AB3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="AC3">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="AD3">
+        <v>4.2990000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60ED005C-EE4F-4655-A412-314A8EE2E525}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="B2">
+        <v>-0.1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="B3">
+        <v>49.9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FA06F7-36F4-4A7C-BFEF-6657330EB921}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="B2">
+        <v>-0.1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="B3">
+        <v>49.9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B05DA13-A9BE-4CFA-8886-CBABF9CA7C76}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="B2">
+        <v>-0.1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="B3">
+        <v>49.9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>129.9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>